--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_19.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,676 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_46</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7)]</t>
+          <t>[('0:00:10.360000', '0:01:59')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:05.840000', '0:01:44.720000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(127.6, 132.4)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[('0:00:32.200000', '0:00:33.700000'), ('0:00:32.060000', '0:00:33.280000'), ('0:00:08.200000', '0:00:12.660000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:00:12.020000', '0:00:25.140000'), ('0:00:49.080000', '0:00:57.840000'), ('0:00:01.440000', '0:00:06.840000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(45.76, 55.48)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(27.52, 38.5)]</t>
+          <t>[('0:00:12.720000', '0:00:17.020000'), ('0:00:22.360000', '0:00:25.240000'), ('0:00:17.760000', '0:00:19.180000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:13.980000', '0:00:18.160000'), ('0:00:23.460000', '0:00:26.480000'), ('0:00:18.840000', '0:00:20.320000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(27.963197, 36.229501)]</t>
+          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(121.08, 122.36)]</t>
+          <t>[('0:01:34.800000', '0:01:46.960000'), ('0:00:40.820000', '0:00:43.620000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>[('0:00:25.480000', '0:00:32.580000'), ('0:01:14.100000', '0:01:20.040000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(83.42, 105.16)]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(86.98, 111.2)]</t>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07542426147077311</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[('0:01:06.880000', '0:01:14.940000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:01:06.060000', '0:01:08.180000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_35</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1963636363636364</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[['G:7', 'C', 'C/7']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(5.4, 13.72)]</t>
+          <t>[('0:00:05.880000', '0:00:11.460000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:12.851927', '0:00:16.810929')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1201923076923077</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(0.440395, 7.142059)]</t>
+          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(32.074829, 37.705668)]</t>
+          <t>[('0:00:08.180000', '0:00:14.180000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+          <t>[('0:00:17.860000', '0:00:28.300000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46)]</t>
+          <t>[('0:00:20.600000', '0:00:24.180000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:03.100000', '0:01:06.360000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.07542426147077311</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
+          <t>[['C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(5.44, 113.76)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(5.06, 123.26)]</t>
+          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:01.440000', '0:00:06.660000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(118.78, 126.08)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(112.14, 117.46)]</t>
+          <t>[('0:00:06.840000', '0:00:16.080000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:06.060000', '0:01:08.180000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
+          <t>[('0:00:21.280000', '0:00:41.800000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_101</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(90.92, 100.48)]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(35.14, 42.32)]</t>
+          <t>[('0:00:13.020000', '0:00:45.300000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:15.360000', '0:00:45.820000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02), (32.98, 35.26)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (69.24, 75.88)]</t>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:23.460000', '0:00:26.480000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(107.9, 109.3)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(75.56, 95.68)]</t>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(8.2, 12.66), (0.78, 5.26)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(84.0, 90.84), (13.74, 22.56)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
